--- a/your_excel_file.xlsx
+++ b/your_excel_file.xlsx
@@ -21,6 +21,326 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="105">
+  <si>
+    <t>S.No.</t>
+  </si>
+  <si>
+    <t>Reg.No.</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>College</t>
+  </si>
+  <si>
+    <t>Dept</t>
+  </si>
+  <si>
+    <t>ARJUN BALAKRISHNAN P</t>
+  </si>
+  <si>
+    <t>RMDEC</t>
+  </si>
+  <si>
+    <t>EEE</t>
+  </si>
+  <si>
+    <t>GANESH  T</t>
+  </si>
+  <si>
+    <t>HARIHARAN  S</t>
+  </si>
+  <si>
+    <t>KAVITHA M</t>
+  </si>
+  <si>
+    <t>KEERTHANA A</t>
+  </si>
+  <si>
+    <t>KRISHNAKANTH P</t>
+  </si>
+  <si>
+    <t>KUMARAVEL M</t>
+  </si>
+  <si>
+    <t>LOKESH S</t>
+  </si>
+  <si>
+    <t>LOKESH  U</t>
+  </si>
+  <si>
+    <t>MANIKANDAN M</t>
+  </si>
+  <si>
+    <t>MOHANA GANESH P V</t>
+  </si>
+  <si>
+    <t>NIVEDHA  R</t>
+  </si>
+  <si>
+    <t>CHANDRA SEKHAR PULLA</t>
+  </si>
+  <si>
+    <t>RISHI KUMAR S</t>
+  </si>
+  <si>
+    <t>SANJAY KUMAR K</t>
+  </si>
+  <si>
+    <t>SHYAM JOSEPH.J</t>
+  </si>
+  <si>
+    <t>SWATHY J</t>
+  </si>
+  <si>
+    <t>TAMIL MUGILAN L T</t>
+  </si>
+  <si>
+    <t>VESHANTHINI MOHANASUNDARAM</t>
+  </si>
+  <si>
+    <t>SRIRAM S</t>
+  </si>
+  <si>
+    <t>KIRAN KUMAR NR</t>
+  </si>
+  <si>
+    <t>RMKCET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mechanical </t>
+  </si>
+  <si>
+    <t>MUTHUKUMAR RAVI</t>
+  </si>
+  <si>
+    <t>PAVIN K M</t>
+  </si>
+  <si>
+    <t>PRAWIN T</t>
+  </si>
+  <si>
+    <t>SANJAY S</t>
+  </si>
+  <si>
+    <t>SATHYA M</t>
+  </si>
+  <si>
+    <t>SHAJITH KUMAR</t>
+  </si>
+  <si>
+    <t>THIRUMAL S</t>
+  </si>
+  <si>
+    <t>KIRAN KUMAR S</t>
+  </si>
+  <si>
+    <t>CHANDU P</t>
+  </si>
+  <si>
+    <t>RACHARLA VAMSI PRASANNA</t>
+  </si>
+  <si>
+    <t>SANTHOSH P</t>
+  </si>
+  <si>
+    <t>SUBASH  B</t>
+  </si>
+  <si>
+    <t>HEMASAI M R</t>
+  </si>
+  <si>
+    <t>SRINIVASAN P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANUJA D    </t>
+  </si>
+  <si>
+    <t>RMKEC</t>
+  </si>
+  <si>
+    <t>DHARSHINI M M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOWTHAMAN V  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARIHARAN R  </t>
+  </si>
+  <si>
+    <t>JAYENDER R R</t>
+  </si>
+  <si>
+    <t>KARNATI YASWANTH REDDY REDDY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KHAVIYA V  </t>
+  </si>
+  <si>
+    <t>LOKESHWARAN S SRINIVASAN</t>
+  </si>
+  <si>
+    <t>PRADEEP P P</t>
+  </si>
+  <si>
+    <t>RENUKA S S</t>
+  </si>
+  <si>
+    <t>RITHEESH K B K B</t>
+  </si>
+  <si>
+    <t>ROSHINI PRIYA M M</t>
+  </si>
+  <si>
+    <t>S DIVYA BARATHI S</t>
+  </si>
+  <si>
+    <t>SATHRASALA MOUNIKA .</t>
+  </si>
+  <si>
+    <t>SHRADDHA T V T V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOWNDHAR R   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SURESH KARTHIK J  </t>
+  </si>
+  <si>
+    <t>VEDICHERLA YUGANDHAR .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YESHWANTH K  </t>
+  </si>
+  <si>
+    <t>YESWANTH L L</t>
+  </si>
+  <si>
+    <t>NAGIRI SANJAY SANJAY</t>
+  </si>
+  <si>
+    <t>NAVEEN KUMAR G KUMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OMPRAKASH M  </t>
+  </si>
+  <si>
+    <t>PRADEEP KUMAR S S</t>
+  </si>
+  <si>
+    <t>HARISH J JAYAMURUGAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANANDHA KUMAR V </t>
+  </si>
+  <si>
+    <t>EIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAVYA G  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BHARATH KUMAR V </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEEKSHITH D  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAVIYA K  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KRITHIKA V  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAVIN KUMAR  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIROSHA C  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIVETHA M  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIJIKRISHNAN C  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUDHARSHANAM R  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">THARUN KUMAR A </t>
+  </si>
+  <si>
+    <t>ATHAPPAN  V</t>
+  </si>
+  <si>
+    <t>BALASIVANANDAN S</t>
+  </si>
+  <si>
+    <t>BHUVANESHWARAN  S</t>
+  </si>
+  <si>
+    <t>GOWTHAM P</t>
+  </si>
+  <si>
+    <t>HENITH H</t>
+  </si>
+  <si>
+    <t>JAYA KISHOR KUMAR S S</t>
+  </si>
+  <si>
+    <t>JESLIN JOE  J</t>
+  </si>
+  <si>
+    <t>MANIKANDAN S</t>
+  </si>
+  <si>
+    <t>MANIKANDANN DHASARATHAN</t>
+  </si>
+  <si>
+    <t>NARENDIRAN M</t>
+  </si>
+  <si>
+    <t>PRADEEP  R</t>
+  </si>
+  <si>
+    <t>PRAVEEN  KUMAR J</t>
+  </si>
+  <si>
+    <t>RAMKUMAR G</t>
+  </si>
+  <si>
+    <t>SURIYA PRASAATH M K</t>
+  </si>
+  <si>
+    <t>SURYA  M</t>
+  </si>
+  <si>
+    <t>SURENDRA  TRIPURARI</t>
+  </si>
+  <si>
+    <t>VIGNESH S</t>
+  </si>
+  <si>
+    <t>VIGNESHWAR R B</t>
+  </si>
+  <si>
+    <t>YESHWANTH S</t>
+  </si>
+  <si>
+    <t>NAGESWARAN M</t>
+  </si>
+  <si>
+    <t>SARAVANAN M</t>
+  </si>
+  <si>
+    <t>CHAKKARAVARTHI A</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,14 +656,1645 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>111520105004</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>111520105008</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>111520105009</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>111520105012</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>111520105013</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>111520105015</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>111520105016</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>111520105017</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>111520105018</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>111520105019</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>111520105020</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>111520105021</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>111520105022</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>111520105023</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>111520105024</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>111520105025</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>111520105026</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>111520105027</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>111520105028</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>111520105307</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>111620114005</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>111620114010</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>111620114011</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>111620114013</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>111620114016</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>111620114015</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>111620114019</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>111620114020</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>111620114024</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>111620114310</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>111620114303</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>111620114317</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>111620114323</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>111620114326</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>111620114306</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>111620114325</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>111720103003</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>111720103007</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>111720103011</v>
+      </c>
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>111720103012</v>
+      </c>
+      <c r="C41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>111720103015</v>
+      </c>
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>111720103016</v>
+      </c>
+      <c r="C43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>111720103017</v>
+      </c>
+      <c r="C44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>111720103019</v>
+      </c>
+      <c r="C45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>111720103023</v>
+      </c>
+      <c r="C46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>111720103025</v>
+      </c>
+      <c r="C47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>111720103026</v>
+      </c>
+      <c r="C48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>111720103027</v>
+      </c>
+      <c r="C49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>111720103028</v>
+      </c>
+      <c r="C50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>111720103030</v>
+      </c>
+      <c r="C51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>111720103031</v>
+      </c>
+      <c r="C52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>111720103032</v>
+      </c>
+      <c r="C53" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>111720103035</v>
+      </c>
+      <c r="C54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>111720103039</v>
+      </c>
+      <c r="C55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>111720103041</v>
+      </c>
+      <c r="C56" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>111720103042</v>
+      </c>
+      <c r="C57" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>111720103306</v>
+      </c>
+      <c r="C58" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>111720103307</v>
+      </c>
+      <c r="C59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>111720103308</v>
+      </c>
+      <c r="C60" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>111720103310</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>45</v>
+      </c>
+      <c r="E61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>111720103303</v>
+      </c>
+      <c r="C62" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>111720105002</v>
+      </c>
+      <c r="C63" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>111720105004</v>
+      </c>
+      <c r="C64" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" t="s">
+        <v>45</v>
+      </c>
+      <c r="E64" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>111720105006</v>
+      </c>
+      <c r="C65" t="s">
+        <v>73</v>
+      </c>
+      <c r="D65" t="s">
+        <v>45</v>
+      </c>
+      <c r="E65" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>111720105009</v>
+      </c>
+      <c r="C66" t="s">
+        <v>74</v>
+      </c>
+      <c r="D66" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>111720105013</v>
+      </c>
+      <c r="C67" t="s">
+        <v>75</v>
+      </c>
+      <c r="D67" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>111720105015</v>
+      </c>
+      <c r="C68" t="s">
+        <v>76</v>
+      </c>
+      <c r="D68" t="s">
+        <v>45</v>
+      </c>
+      <c r="E68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>111720105016</v>
+      </c>
+      <c r="C69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" t="s">
+        <v>45</v>
+      </c>
+      <c r="E69" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>111720105018</v>
+      </c>
+      <c r="C70" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70" t="s">
+        <v>45</v>
+      </c>
+      <c r="E70" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>111720105019</v>
+      </c>
+      <c r="C71" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71" t="s">
+        <v>45</v>
+      </c>
+      <c r="E71" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>111720105026</v>
+      </c>
+      <c r="C72" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72" t="s">
+        <v>45</v>
+      </c>
+      <c r="E72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>111720105027</v>
+      </c>
+      <c r="C73" t="s">
+        <v>81</v>
+      </c>
+      <c r="D73" t="s">
+        <v>45</v>
+      </c>
+      <c r="E73" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>111720105028</v>
+      </c>
+      <c r="C74" t="s">
+        <v>82</v>
+      </c>
+      <c r="D74" t="s">
+        <v>45</v>
+      </c>
+      <c r="E74" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>111720106004</v>
+      </c>
+      <c r="C75" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" t="s">
+        <v>45</v>
+      </c>
+      <c r="E75" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>111720106006</v>
+      </c>
+      <c r="C76" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" t="s">
+        <v>45</v>
+      </c>
+      <c r="E76" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>111720106007</v>
+      </c>
+      <c r="C77" t="s">
+        <v>85</v>
+      </c>
+      <c r="D77" t="s">
+        <v>45</v>
+      </c>
+      <c r="E77" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>111720106014</v>
+      </c>
+      <c r="C78" t="s">
+        <v>86</v>
+      </c>
+      <c r="D78" t="s">
+        <v>45</v>
+      </c>
+      <c r="E78" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>111720106017</v>
+      </c>
+      <c r="C79" t="s">
+        <v>87</v>
+      </c>
+      <c r="D79" t="s">
+        <v>45</v>
+      </c>
+      <c r="E79" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>111720106021</v>
+      </c>
+      <c r="C80" t="s">
+        <v>88</v>
+      </c>
+      <c r="D80" t="s">
+        <v>45</v>
+      </c>
+      <c r="E80" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>111720106022</v>
+      </c>
+      <c r="C81" t="s">
+        <v>89</v>
+      </c>
+      <c r="D81" t="s">
+        <v>45</v>
+      </c>
+      <c r="E81" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>111720106026</v>
+      </c>
+      <c r="C82" t="s">
+        <v>90</v>
+      </c>
+      <c r="D82" t="s">
+        <v>45</v>
+      </c>
+      <c r="E82" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>111720106027</v>
+      </c>
+      <c r="C83" t="s">
+        <v>91</v>
+      </c>
+      <c r="D83" t="s">
+        <v>45</v>
+      </c>
+      <c r="E83" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>111720106029</v>
+      </c>
+      <c r="C84" t="s">
+        <v>92</v>
+      </c>
+      <c r="D84" t="s">
+        <v>45</v>
+      </c>
+      <c r="E84" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>111720106033</v>
+      </c>
+      <c r="C85" t="s">
+        <v>93</v>
+      </c>
+      <c r="D85" t="s">
+        <v>45</v>
+      </c>
+      <c r="E85" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>111720106036</v>
+      </c>
+      <c r="C86" t="s">
+        <v>94</v>
+      </c>
+      <c r="D86" t="s">
+        <v>45</v>
+      </c>
+      <c r="E86" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>111720106037</v>
+      </c>
+      <c r="C87" t="s">
+        <v>95</v>
+      </c>
+      <c r="D87" t="s">
+        <v>45</v>
+      </c>
+      <c r="E87" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>111720106046</v>
+      </c>
+      <c r="C88" t="s">
+        <v>96</v>
+      </c>
+      <c r="D88" t="s">
+        <v>45</v>
+      </c>
+      <c r="E88" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>111720106047</v>
+      </c>
+      <c r="C89" t="s">
+        <v>97</v>
+      </c>
+      <c r="D89" t="s">
+        <v>45</v>
+      </c>
+      <c r="E89" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>111720106048</v>
+      </c>
+      <c r="C90" t="s">
+        <v>98</v>
+      </c>
+      <c r="D90" t="s">
+        <v>45</v>
+      </c>
+      <c r="E90" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>111720106049</v>
+      </c>
+      <c r="C91" t="s">
+        <v>99</v>
+      </c>
+      <c r="D91" t="s">
+        <v>45</v>
+      </c>
+      <c r="E91" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>111720106050</v>
+      </c>
+      <c r="C92" t="s">
+        <v>100</v>
+      </c>
+      <c r="D92" t="s">
+        <v>45</v>
+      </c>
+      <c r="E92" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>111720106051</v>
+      </c>
+      <c r="C93" t="s">
+        <v>101</v>
+      </c>
+      <c r="D93" t="s">
+        <v>45</v>
+      </c>
+      <c r="E93" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>111720106304</v>
+      </c>
+      <c r="C94" t="s">
+        <v>102</v>
+      </c>
+      <c r="D94" t="s">
+        <v>45</v>
+      </c>
+      <c r="E94" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>111720106307</v>
+      </c>
+      <c r="C95" t="s">
+        <v>103</v>
+      </c>
+      <c r="D95" t="s">
+        <v>45</v>
+      </c>
+      <c r="E95" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>111720106302</v>
+      </c>
+      <c r="C96" t="s">
+        <v>104</v>
+      </c>
+      <c r="D96" t="s">
+        <v>45</v>
+      </c>
+      <c r="E96" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>